--- a/biology/Médecine/SAMU_-_Urgences_de_France/SAMU_-_Urgences_de_France.xlsx
+++ b/biology/Médecine/SAMU_-_Urgences_de_France/SAMU_-_Urgences_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SAMU - Urgences de France (SUdF) est un syndicat français de médecine d'urgence, fondé en 1975 sous le nom « Samu de France »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SAMU - Urgences de France (SUdF) est un syndicat français de médecine d'urgence, fondé en 1975 sous le nom « Samu de France ».
 </t>
         </is>
       </c>
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Présidents
-Marc Giroud (2002-2014)[2]
-François Braun (chef de service des urgences du CHR de Metz-Thionville) (2014-2022)[3]
-Marc Noizet (chef du service d'urgence du groupe hospitalier de la région de Mulhouse et Sud-Alsace (GHRMSA) et du Samu du Haut-Rhin) (depuis 2022)
-Secrétaires généraux
-Marc Giroud (1975-2002)[2]</t>
+          <t>Présidents</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Marc Giroud (2002-2014)
+François Braun (chef de service des urgences du CHR de Metz-Thionville) (2014-2022)
+Marc Noizet (chef du service d'urgence du groupe hospitalier de la région de Mulhouse et Sud-Alsace (GHRMSA) et du Samu du Haut-Rhin) (depuis 2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAMU_-_Urgences_de_France</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/SAMU_-_Urgences_de_France</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Secrétaires généraux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Marc Giroud (1975-2002)</t>
         </is>
       </c>
     </row>
